--- a/example/project/data/excel/C-常数表.xlsx
+++ b/example/project/data/excel/C-常数表.xlsx
@@ -13,8 +13,6 @@
   </bookViews>
   <sheets>
     <sheet name="const|常数表" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -338,7 +336,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5074" uniqueCount="3362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5073" uniqueCount="3361">
   <si>
     <t>是否导出</t>
   </si>
@@ -16827,9 +16825,6 @@
   </si>
   <si>
     <t>过关斩将碾压VIP条件限制</t>
-  </si>
-  <si>
-    <t>[[1200010,0.01],[1200030,1],[200020,1],[200040,1],[200050,1],[600060,1],[600070,1],[600090,1],[700100,1],[4650000,1],[2400010,1],[1400020,1],[900120,1],[400030,1],[400050,1],[400070,1],[700070,1],[900060,1],[900090,1],[900170,1],[2300010,1],[2300300,1],[1100020,1],[1300020,1],[300030,1],[300040,1],[300050,1],[700060,1],[700090,1],[4630000,1],[2100010,1],[500120,1],[100030,1],[100050,1],[100060,1],[500040,1],[500070,1],[500090,1],[500110,1],[4640000,1]]</t>
   </si>
   <si>
     <t>#name</t>
@@ -19800,7 +19795,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>3361</v>
+        <v>3360</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="35" t="s">
@@ -42211,44 +42206,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1969" sqref="D1969"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
-  <sheetData/>
-  <phoneticPr fontId="42" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1969" sqref="D1969"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
-  <sheetData>
-    <row r="7" spans="4:4">
-      <c r="D7" s="1" t="s">
-        <v>3360</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="42" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
-</file>
-
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <commentList sheetStid="1">
